--- a/data/trans_camb/P16B04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,64</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 17,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 22,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,11; 14,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 24,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; 12,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 17,19</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 21,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 28,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,5; 17,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 31,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 15,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 20,76</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,0; -11,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,78; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,3; 9,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 10,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,4; -3,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 6,01</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,0; -11,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,78; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; 10,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 12,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,57; -3,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 6,4</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,76</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,02; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,26; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,33; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,72; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,36; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,5; -4,45</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,76%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,02; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,26; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,33; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,72; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,36; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,5; -4,45</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,13; -1,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 6,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; 8,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,64; 7,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 0,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,7; 4,55</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; -1,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 7,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 9,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,73; 8,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 0,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,94; 4,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 17,08</t>
+          <t>-4,28; 16,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 22,2</t>
+          <t>2,49; 20,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 14,48</t>
+          <t>-15,17; 13,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,03</t>
+          <t>0,0; 22,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 12,69</t>
+          <t>-5,47; 12,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 17,19</t>
+          <t>2,71; 17,14</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 21,14</t>
+          <t>-3,8; 20,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 28,53</t>
+          <t>2,55; 26,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 17,04</t>
+          <t>-15,32; 16,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,63</t>
+          <t>0,0; 28,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 15,03</t>
+          <t>-5,68; 13,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 20,76</t>
+          <t>2,78; 20,68</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -11,92</t>
+          <t>-35,49; -11,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 0,0</t>
+          <t>-11,7; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 9,44</t>
+          <t>-6,29; 10,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 10,52</t>
+          <t>-5,13; 12,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,4; -3,45</t>
+          <t>-19,09; -2,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 6,01</t>
+          <t>-4,79; 5,99</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -11,92</t>
+          <t>-35,49; -11,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 0,0</t>
+          <t>-11,7; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 10,72</t>
+          <t>-6,36; 12,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 12,09</t>
+          <t>-5,13; 14,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -3,95</t>
+          <t>-19,4; -3,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 6,4</t>
+          <t>-4,79; 6,4</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 0,0</t>
+          <t>-49,83; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 0,0</t>
+          <t>-44,62; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 0,0</t>
+          <t>-65,73; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-50,72; 0,0</t>
+          <t>-51,89; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 0,0</t>
+          <t>-40,59; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,5; -4,45</t>
+          <t>-40,47; -6,21</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 0,0</t>
+          <t>-49,83; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 0,0</t>
+          <t>-44,62; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 0,0</t>
+          <t>-65,73; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,72; 0,0</t>
+          <t>-51,89; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 0,0</t>
+          <t>-40,59; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,5; -4,45</t>
+          <t>-40,47; -6,21</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -1,52</t>
+          <t>-19,8; -1,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 6,58</t>
+          <t>-8,06; 6,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 8,15</t>
+          <t>-6,42; 9,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 7,26</t>
+          <t>-7,93; 7,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 0,94</t>
+          <t>-10,66; 0,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 4,55</t>
+          <t>-5,96; 4,79</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -1,86</t>
+          <t>-20,51; -2,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 7,5</t>
+          <t>-8,22; 6,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 9,04</t>
+          <t>-6,57; 10,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 8,13</t>
+          <t>-8,1; 8,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 0,73</t>
+          <t>-10,89; 0,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 4,9</t>
+          <t>-6,18; 5,17</t>
         </is>
       </c>
     </row>
